--- a/skrum_docs/04_SpecificDesign/30_Setting(Group)_グループ設定画面仕様書_20170713.xlsx
+++ b/skrum_docs/04_SpecificDesign/30_Setting(Group)_グループ設定画面仕様書_20170713.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="1020" yWindow="460" windowWidth="27780" windowHeight="17540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="グループ作成" sheetId="1" r:id="rId1"/>
@@ -2361,8 +2361,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2372,12 +2372,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8318500" y="1587500"/>
-          <a:ext cx="5118100" cy="2019300"/>
+          <a:ext cx="5118100" cy="2298700"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -65012"/>
-            <a:gd name="adj2" fmla="val 86596"/>
+            <a:gd name="adj1" fmla="val -51364"/>
+            <a:gd name="adj2" fmla="val 75546"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -2432,26 +2432,30 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
-            <a:t>v1/groups/pagesearch.json?q=</a:t>
+            <a:t>v1/groups/pagesearch.json?p=1&amp;q=</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
             <a:t>グル</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
-            <a:t>&amp;p=1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
             <a:t>"p" = page</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>"q" is not required.</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3581,7 +3585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScale="99" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -3601,7 +3605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <sheetData>
